--- a/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
+++ b/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,27 +22,33 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>008284</t>
+  </si>
+  <si>
+    <t>008285</t>
+  </si>
+  <si>
     <t>010644</t>
   </si>
   <si>
     <t>010645</t>
   </si>
   <si>
-    <t>008284</t>
-  </si>
-  <si>
-    <t>008285</t>
-  </si>
-  <si>
     <t>004877</t>
   </si>
   <si>
@@ -52,18 +58,18 @@
     <t>004879</t>
   </si>
   <si>
+    <t>易方达全球医药行业混合（QDII）人民币</t>
+  </si>
+  <si>
+    <t>易方达全球医药行业混合（QDII）美元</t>
+  </si>
+  <si>
     <t>富国全球健康生活主题混合（QDII）人民币</t>
   </si>
   <si>
     <t>富国全球健康生活主题混合（QDII）美元</t>
   </si>
   <si>
-    <t>易方达全球医药行业混合（QDII）人民币</t>
-  </si>
-  <si>
-    <t>易方达全球医药行业混合（QDII）美元</t>
-  </si>
-  <si>
     <t>汇添富全球医疗保健混合(QDII)人民币</t>
   </si>
   <si>
@@ -73,22 +79,40 @@
     <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
   </si>
   <si>
+    <t>12.01</t>
+  </si>
+  <si>
+    <t>5.33</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>93.46</t>
+  </si>
+  <si>
     <t>84.44</t>
   </si>
   <si>
-    <t>93.46</t>
-  </si>
-  <si>
     <t>80.52</t>
   </si>
   <si>
+    <t>8.88</t>
+  </si>
+  <si>
     <t>5.34</t>
   </si>
   <si>
-    <t>8.88</t>
-  </si>
-  <si>
     <t>2.96</t>
+  </si>
+  <si>
+    <t>1.0665</t>
+  </si>
+  <si>
+    <t>0.2846</t>
+  </si>
+  <si>
+    <t>0.1291</t>
   </si>
 </sst>
 </file>
@@ -446,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,144 +492,192 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
+++ b/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
@@ -1,150 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>008284</t>
-  </si>
-  <si>
-    <t>008285</t>
-  </si>
-  <si>
-    <t>010644</t>
-  </si>
-  <si>
-    <t>010645</t>
-  </si>
-  <si>
-    <t>004877</t>
-  </si>
-  <si>
-    <t>004878</t>
-  </si>
-  <si>
-    <t>004879</t>
-  </si>
-  <si>
-    <t>易方达全球医药行业混合（QDII）人民币</t>
-  </si>
-  <si>
-    <t>易方达全球医药行业混合（QDII）美元</t>
-  </si>
-  <si>
-    <t>富国全球健康生活主题混合（QDII）人民币</t>
-  </si>
-  <si>
-    <t>富国全球健康生活主题混合（QDII）美元</t>
-  </si>
-  <si>
-    <t>汇添富全球医疗保健混合(QDII)人民币</t>
-  </si>
-  <si>
-    <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
-  </si>
-  <si>
-    <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
-  </si>
-  <si>
-    <t>12.01</t>
-  </si>
-  <si>
-    <t>5.33</t>
-  </si>
-  <si>
-    <t>4.36</t>
-  </si>
-  <si>
-    <t>93.46</t>
-  </si>
-  <si>
-    <t>84.44</t>
-  </si>
-  <si>
-    <t>80.52</t>
-  </si>
-  <si>
-    <t>8.88</t>
-  </si>
-  <si>
-    <t>5.34</t>
-  </si>
-  <si>
-    <t>2.96</t>
-  </si>
-  <si>
-    <t>1.0665</t>
-  </si>
-  <si>
-    <t>0.2846</t>
-  </si>
-  <si>
-    <t>0.1291</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,219 +446,531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0665</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0665</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010645</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004877</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004878</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004879</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2967</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010645</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
+++ b/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -973,4 +974,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3084</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2782</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010644</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010645</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
+++ b/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
+++ b/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.36</v>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.99</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="4">
@@ -1330,13 +1463,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
+++ b/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.77</v>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8801</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>4.36</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1596,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.99</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1612,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
+++ b/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1533,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,17 +1545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.07</v>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8761</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1580,14 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.77</v>
       </c>
     </row>
     <row r="4">
@@ -1596,14 +1661,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.36</v>
       </c>
     </row>
     <row r="5">
@@ -1612,14 +1699,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.99</v>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1628,13 +1737,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.09</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
+++ b/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,319 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008284</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达全球医药行业混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0665</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008285</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达全球医药行业混合（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.88</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0665</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="D3" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010644</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国全球健康生活主题混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2846</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D4" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010645</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国全球健康生活主题混合（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.44</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2846</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+      <c r="D5" t="n">
+        <v>4.36</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004877</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富全球医疗保健混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.52</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1291</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.99</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004878</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1291</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004879</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.52</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1291</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.09</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -778,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -829,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008284</t>
+          <t>010387</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）人民币</t>
+          <t>易方达医药生物股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18.11</t>
+          <t>24.07</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.29</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2967</t>
+          <t>0.8761</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -867,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008285</t>
+          <t>011157</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）美元</t>
+          <t>弘毅远方港股通智选领航混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.11</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.29</t>
+          <t>90.19</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2967</t>
+          <t>0.2132</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -905,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010644</t>
+          <t>010388</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）人民币</t>
+          <t>易方达医药生物股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>86.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1972</t>
+          <t>0.1871</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -943,36 +753,188 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010645</t>
+          <t>008359</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国全球健康生活主题混合（QDII）美元</t>
+          <t>华安医疗创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1972</t>
+          <t>0.1607</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,7 +969,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1047,26 +1009,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.43</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.16</t>
+          <t>83.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3084</t>
+          <t>0.8801</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1075,188 +1037,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008284</t>
+          <t>010388</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达全球医药行业混合（QDII）人民币</t>
+          <t>易方达医药生物股票C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.18</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>83.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2782</t>
+          <t>0.1869</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008285</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达全球医药行业混合（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>16.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.2782</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010388</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达医药生物股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2046</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010644</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国全球健康生活主题混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1476</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010645</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国全球健康生活主题混合（QDII）美元</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1476</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1212,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1423,7 +1233,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1463,26 +1273,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.51</t>
+          <t>27.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.49</t>
+          <t>84.16</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8801</t>
+          <t>1.3084</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1491,36 +1301,188 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2782</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>010388</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>易方达医药生物股票C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1869</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010644</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010645</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1534,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1555,7 +1517,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1585,36 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010387</t>
+          <t>008284</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达医药生物股票A</t>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8761</t>
+          <t>1.2967</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1623,36 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011157</t>
+          <t>008285</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合A</t>
+          <t>易方达全球医药行业混合（QDII）美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.19</t>
+          <t>90.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2132</t>
+          <t>1.2967</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1661,36 +1623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010388</t>
+          <t>010644</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达医药生物股票C</t>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.95</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1871</t>
+          <t>0.1972</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1699,188 +1661,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008359</t>
+          <t>010645</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安医疗创新混合</t>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1607</t>
+          <t>0.1972</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>040018</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安香港精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1526</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013483</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安医疗创新混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0470</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011158</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>弘毅远方港股通智选领航混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.19</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0459</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
         <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1894,128 +1704,318 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.69</v>
+          <t>008284</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0665</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>008285</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达全球医药行业混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0665</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>1.07</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.77</v>
+          <t>010644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+          <t>010645</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国全球健康生活主题混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
-        <v>4.36</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.99</v>
+          <t>004877</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.09</v>
+          <t>004878</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004879</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富全球医疗保健混合(QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
+++ b/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.07</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.77</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4.36</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2.99</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.09</v>
       </c>
     </row>
@@ -583,6 +600,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6654</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -935,138 +1426,6 @@
       </c>
       <c r="H9" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010387</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达医药生物股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8801</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010388</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达医药生物股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1869</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1141,26 +1500,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.19</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>83.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4876</t>
+          <t>0.8801</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1179,26 +1538,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>83.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2851</t>
+          <t>0.1869</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1207,6 +1566,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1490,7 +1981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1698,7 +2189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
+++ b/数据整理/stocks/港股/09995-荣昌生物-B.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.43</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.07</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.77</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>4.36</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.99</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.09</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.27</t>
+          <t>20.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6654</t>
+          <t>1.0053</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010388</t>
+          <t>012346</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达医药生物股票C</t>
+          <t>易方达港股通成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>30.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>84.59</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1971</t>
+          <t>0.9357</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005805</t>
+          <t>012347</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞医疗健康混合A</t>
+          <t>易方达港股通成长混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>21.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>89.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1951</t>
+          <t>0.6530</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011157</t>
+          <t>007718</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合A</t>
+          <t>中银创新医疗混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>11.61</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.63</t>
+          <t>80.72</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1145</t>
+          <t>0.3982</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007718</t>
+          <t>010388</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银创新医疗混合A</t>
+          <t>易方达医药生物股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1134</t>
+          <t>0.2928</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -856,22 +873,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>78.50</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0761</t>
+          <t>0.1319</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011158</t>
+          <t>010500</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合C</t>
+          <t>中银创新医疗混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.63</t>
+          <t>80.72</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0337</t>
+          <t>0.1310</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011453</t>
+          <t>012086</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞医疗健康混合C</t>
+          <t>博时健康生活混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.86</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0205</t>
+          <t>0.0353</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -970,26 +987,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>74.85</t>
+          <t>87.69</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010500</t>
+          <t>012087</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中银创新医疗混合C</t>
+          <t>博时健康生活混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.35</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1046,26 +1063,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>74.85</t>
+          <t>87.69</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1074,6 +1091,480 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6654</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>470888</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富香港优势精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1426,138 +1917,6 @@
       </c>
       <c r="H9" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010387</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达医药生物股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>83.49</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8801</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010388</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达医药生物股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.49</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1869</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1632,26 +1991,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.19</t>
+          <t>22.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>83.49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4876</t>
+          <t>0.8801</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1670,26 +2029,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>83.49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2851</t>
+          <t>0.1869</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1698,6 +2057,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010387</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4876</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2851</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1981,7 +2472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2189,7 +2680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
